--- a/Code/Results/Cases/Case_4_192/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_192/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.022521746030864</v>
+        <v>1.046810264341325</v>
       </c>
       <c r="D2">
-        <v>1.041465775333373</v>
+        <v>1.055234419612457</v>
       </c>
       <c r="E2">
-        <v>1.040932978017917</v>
+        <v>1.060410840985502</v>
       </c>
       <c r="F2">
-        <v>1.049164002604053</v>
+        <v>1.067775337790392</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054356665478928</v>
+        <v>1.046217627763845</v>
       </c>
       <c r="J2">
-        <v>1.044049086869763</v>
+        <v>1.051862675701507</v>
       </c>
       <c r="K2">
-        <v>1.052376140963376</v>
+        <v>1.057975437745309</v>
       </c>
       <c r="L2">
-        <v>1.051850051206083</v>
+        <v>1.063137694830238</v>
       </c>
       <c r="M2">
-        <v>1.059978399368941</v>
+        <v>1.070482296160417</v>
       </c>
       <c r="N2">
-        <v>1.018364544024934</v>
+        <v>1.021136860290057</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.026377183449965</v>
+        <v>1.047641194868147</v>
       </c>
       <c r="D3">
-        <v>1.044413629622934</v>
+        <v>1.055895854492617</v>
       </c>
       <c r="E3">
-        <v>1.04433018741755</v>
+        <v>1.061195055456298</v>
       </c>
       <c r="F3">
-        <v>1.052594582519771</v>
+        <v>1.068565549263242</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055481718289513</v>
+        <v>1.04641814162123</v>
       </c>
       <c r="J3">
-        <v>1.046173725136217</v>
+        <v>1.052342408947657</v>
       </c>
       <c r="K3">
-        <v>1.054508099048494</v>
+        <v>1.058450661547886</v>
       </c>
       <c r="L3">
-        <v>1.054425615340949</v>
+        <v>1.063736405663498</v>
       </c>
       <c r="M3">
-        <v>1.062595986776158</v>
+        <v>1.071088421744308</v>
       </c>
       <c r="N3">
-        <v>1.019083690590773</v>
+        <v>1.021298032604335</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.028828506011097</v>
+        <v>1.048179646282333</v>
       </c>
       <c r="D4">
-        <v>1.046290838007915</v>
+        <v>1.056324534269558</v>
       </c>
       <c r="E4">
-        <v>1.046495271937137</v>
+        <v>1.06170358757896</v>
       </c>
       <c r="F4">
-        <v>1.05478067698573</v>
+        <v>1.069077929518894</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056189503222421</v>
+        <v>1.046547126965222</v>
       </c>
       <c r="J4">
-        <v>1.047522457607917</v>
+        <v>1.052652923715695</v>
       </c>
       <c r="K4">
-        <v>1.055860918595257</v>
+        <v>1.058758164043797</v>
       </c>
       <c r="L4">
-        <v>1.056063146382729</v>
+        <v>1.064124242425581</v>
       </c>
       <c r="M4">
-        <v>1.06426002038834</v>
+        <v>1.071481024376149</v>
       </c>
       <c r="N4">
-        <v>1.019540052799584</v>
+        <v>1.021402309999712</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.029848962691114</v>
+        <v>1.048406197120103</v>
       </c>
       <c r="D5">
-        <v>1.047072965133976</v>
+        <v>1.056504913880519</v>
       </c>
       <c r="E5">
-        <v>1.047397767672592</v>
+        <v>1.06191763412661</v>
       </c>
       <c r="F5">
-        <v>1.055691866495402</v>
+        <v>1.069293586037498</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056482309747783</v>
+        <v>1.046601169564096</v>
       </c>
       <c r="J5">
-        <v>1.048083382387811</v>
+        <v>1.052783485594828</v>
       </c>
       <c r="K5">
-        <v>1.056423403149981</v>
+        <v>1.05888743690889</v>
       </c>
       <c r="L5">
-        <v>1.056744794224844</v>
+        <v>1.064287390517971</v>
       </c>
       <c r="M5">
-        <v>1.06495264621004</v>
+        <v>1.07164616833602</v>
       </c>
       <c r="N5">
-        <v>1.019729809421988</v>
+        <v>1.021446144875482</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.030019719623732</v>
+        <v>1.048444246850061</v>
       </c>
       <c r="D6">
-        <v>1.047203879639259</v>
+        <v>1.056535209893092</v>
       </c>
       <c r="E6">
-        <v>1.047548855252975</v>
+        <v>1.061953588651137</v>
       </c>
       <c r="F6">
-        <v>1.055844405681232</v>
+        <v>1.069329810425466</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056531197463003</v>
+        <v>1.046610232810166</v>
       </c>
       <c r="J6">
-        <v>1.048177211823229</v>
+        <v>1.052805408728957</v>
       </c>
       <c r="K6">
-        <v>1.056517485104206</v>
+        <v>1.058909142281513</v>
       </c>
       <c r="L6">
-        <v>1.056858853988226</v>
+        <v>1.064314789706481</v>
       </c>
       <c r="M6">
-        <v>1.065068539662815</v>
+        <v>1.071673902186216</v>
       </c>
       <c r="N6">
-        <v>1.019761548786848</v>
+        <v>1.021453504733541</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.028842180603871</v>
+        <v>1.048182672737623</v>
       </c>
       <c r="D7">
-        <v>1.046301316287358</v>
+        <v>1.056326943874074</v>
       </c>
       <c r="E7">
-        <v>1.04650736111224</v>
+        <v>1.061706446661701</v>
       </c>
       <c r="F7">
-        <v>1.054792882871841</v>
+        <v>1.069080810144788</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056193434250613</v>
+        <v>1.046547849804463</v>
       </c>
       <c r="J7">
-        <v>1.047529976411317</v>
+        <v>1.052654668207226</v>
       </c>
       <c r="K7">
-        <v>1.055868458866744</v>
+        <v>1.058759891400559</v>
       </c>
       <c r="L7">
-        <v>1.056072280962911</v>
+        <v>1.064126422021514</v>
       </c>
       <c r="M7">
-        <v>1.064269302298293</v>
+        <v>1.071483230671296</v>
       </c>
       <c r="N7">
-        <v>1.019542596515404</v>
+        <v>1.021402895737223</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.023833887740469</v>
+        <v>1.047090917840839</v>
       </c>
       <c r="D8">
-        <v>1.042468397276213</v>
+        <v>1.055457811211971</v>
       </c>
       <c r="E8">
-        <v>1.042088081788415</v>
+        <v>1.060675642436109</v>
       </c>
       <c r="F8">
-        <v>1.050330505275147</v>
+        <v>1.068042172622862</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054741119888354</v>
+        <v>1.046285549371484</v>
       </c>
       <c r="J8">
-        <v>1.044772607111849</v>
+        <v>1.052024783264579</v>
       </c>
       <c r="K8">
-        <v>1.053102267578945</v>
+        <v>1.058136040819933</v>
       </c>
       <c r="L8">
-        <v>1.052726596885369</v>
+        <v>1.063339941780928</v>
       </c>
       <c r="M8">
-        <v>1.060869290535975</v>
+        <v>1.070687055549951</v>
       </c>
       <c r="N8">
-        <v>1.018609471973343</v>
+        <v>1.021191331385491</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.01466157272492</v>
+        <v>1.04517318807228</v>
       </c>
       <c r="D9">
-        <v>1.035473677975166</v>
+        <v>1.053931634529235</v>
       </c>
       <c r="E9">
-        <v>1.0340362990983</v>
+        <v>1.058867692835685</v>
       </c>
       <c r="F9">
-        <v>1.042198278458008</v>
+        <v>1.066220174134707</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05202303867591</v>
+        <v>1.045817551770982</v>
       </c>
       <c r="J9">
-        <v>1.039707008324543</v>
+        <v>1.050915634516733</v>
       </c>
       <c r="K9">
-        <v>1.048016292226923</v>
+        <v>1.057036805560792</v>
       </c>
       <c r="L9">
-        <v>1.04660028408986</v>
+        <v>1.061957434404395</v>
       </c>
       <c r="M9">
-        <v>1.054641905848662</v>
+        <v>1.069287221942961</v>
       </c>
       <c r="N9">
-        <v>1.016894095311036</v>
+        <v>1.020818459161775</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.008291843485702</v>
+        <v>1.043898897077914</v>
       </c>
       <c r="D10">
-        <v>1.030635655606931</v>
+        <v>1.052917890235788</v>
       </c>
       <c r="E10">
-        <v>1.028475044342924</v>
+        <v>1.057668200433336</v>
       </c>
       <c r="F10">
-        <v>1.036580321724255</v>
+        <v>1.065011153352059</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050097944309906</v>
+        <v>1.045501706009109</v>
       </c>
       <c r="J10">
-        <v>1.036180297082358</v>
+        <v>1.050176812578178</v>
       </c>
       <c r="K10">
-        <v>1.044472960550413</v>
+        <v>1.056304112538769</v>
       </c>
       <c r="L10">
-        <v>1.042348526353611</v>
+        <v>1.061038126438448</v>
       </c>
       <c r="M10">
-        <v>1.050319090903136</v>
+        <v>1.068356203076759</v>
       </c>
       <c r="N10">
-        <v>1.015699241158936</v>
+        <v>1.020569861274243</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.005468120187518</v>
+        <v>1.04334813260165</v>
       </c>
       <c r="D11">
-        <v>1.028496161636129</v>
+        <v>1.052479830794264</v>
       </c>
       <c r="E11">
-        <v>1.026017395592706</v>
+        <v>1.057150209799574</v>
       </c>
       <c r="F11">
-        <v>1.034097381399015</v>
+        <v>1.064488998864144</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049236072983766</v>
+        <v>1.045364038488716</v>
       </c>
       <c r="J11">
-        <v>1.034615175080139</v>
+        <v>1.049857056278582</v>
       </c>
       <c r="K11">
-        <v>1.042899973276518</v>
+        <v>1.055986897093258</v>
       </c>
       <c r="L11">
-        <v>1.040464793307129</v>
+        <v>1.060640637082423</v>
       </c>
       <c r="M11">
-        <v>1.048403697931196</v>
+        <v>1.067953605450142</v>
       </c>
       <c r="N11">
-        <v>1.015168870829586</v>
+        <v>1.020462218069341</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.004408946313302</v>
+        <v>1.043143707998282</v>
       </c>
       <c r="D12">
-        <v>1.027694478061415</v>
+        <v>1.052317252944367</v>
       </c>
       <c r="E12">
-        <v>1.025096731790772</v>
+        <v>1.056958017040127</v>
       </c>
       <c r="F12">
-        <v>1.033167211265109</v>
+        <v>1.064295253800764</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048911551400945</v>
+        <v>1.045312767567444</v>
       </c>
       <c r="J12">
-        <v>1.034027876664301</v>
+        <v>1.049738309729385</v>
       </c>
       <c r="K12">
-        <v>1.042309657679943</v>
+        <v>1.055869077419937</v>
       </c>
       <c r="L12">
-        <v>1.03975841131237</v>
+        <v>1.060493080197917</v>
       </c>
       <c r="M12">
-        <v>1.047685420364816</v>
+        <v>1.067804145564075</v>
       </c>
       <c r="N12">
-        <v>1.01496984125594</v>
+        <v>1.020422235299028</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.004636617317533</v>
+        <v>1.043187550778623</v>
       </c>
       <c r="D13">
-        <v>1.02786676244027</v>
+        <v>1.052352120217533</v>
       </c>
       <c r="E13">
-        <v>1.025294575080759</v>
+        <v>1.05699923341165</v>
       </c>
       <c r="F13">
-        <v>1.033367098773345</v>
+        <v>1.064336803402273</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048981363002579</v>
+        <v>1.045323771454053</v>
       </c>
       <c r="J13">
-        <v>1.034154126882722</v>
+        <v>1.049763780105966</v>
       </c>
       <c r="K13">
-        <v>1.042436559342415</v>
+        <v>1.055894349742648</v>
       </c>
       <c r="L13">
-        <v>1.039910239339091</v>
+        <v>1.060524727625325</v>
       </c>
       <c r="M13">
-        <v>1.047839806198801</v>
+        <v>1.067836201442646</v>
       </c>
       <c r="N13">
-        <v>1.015012626720817</v>
+        <v>1.02043081169872</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.005380781787103</v>
+        <v>1.043331231651249</v>
       </c>
       <c r="D14">
-        <v>1.028430038287602</v>
+        <v>1.052466389253919</v>
       </c>
       <c r="E14">
-        <v>1.025941454010689</v>
+        <v>1.057134318748912</v>
       </c>
       <c r="F14">
-        <v>1.034020656308478</v>
+        <v>1.064472979614811</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049209338163001</v>
+        <v>1.045359803169362</v>
       </c>
       <c r="J14">
-        <v>1.034566751398624</v>
+        <v>1.04984724013025</v>
       </c>
       <c r="K14">
-        <v>1.042851302116611</v>
+        <v>1.055977157905354</v>
       </c>
       <c r="L14">
-        <v>1.040406541399812</v>
+        <v>1.060628438172169</v>
       </c>
       <c r="M14">
-        <v>1.048344465509671</v>
+        <v>1.067941249350353</v>
       </c>
       <c r="N14">
-        <v>1.015152460768002</v>
+        <v>1.020458913063664</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.005837904628435</v>
+        <v>1.04341977861935</v>
       </c>
       <c r="D15">
-        <v>1.02877615755394</v>
+        <v>1.052536812381241</v>
       </c>
       <c r="E15">
-        <v>1.026338975786143</v>
+        <v>1.057217577440853</v>
       </c>
       <c r="F15">
-        <v>1.034422278138236</v>
+        <v>1.064556909681983</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049349216115871</v>
+        <v>1.045381985622875</v>
       </c>
       <c r="J15">
-        <v>1.034820188508371</v>
+        <v>1.049898665982962</v>
       </c>
       <c r="K15">
-        <v>1.043106031827144</v>
+        <v>1.05602817988585</v>
       </c>
       <c r="L15">
-        <v>1.040711436176755</v>
+        <v>1.060692349421355</v>
       </c>
       <c r="M15">
-        <v>1.048654491435966</v>
+        <v>1.068005983856201</v>
       </c>
       <c r="N15">
-        <v>1.015238346314241</v>
+        <v>1.020476227351251</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.008477823869017</v>
+        <v>1.043935470977368</v>
       </c>
       <c r="D16">
-        <v>1.0307766835897</v>
+        <v>1.052946981894589</v>
       </c>
       <c r="E16">
-        <v>1.028637077558553</v>
+        <v>1.057702607385839</v>
       </c>
       <c r="F16">
-        <v>1.036744017810066</v>
+        <v>1.065045835849136</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05015453654524</v>
+        <v>1.045510823564197</v>
       </c>
       <c r="J16">
-        <v>1.036283348555823</v>
+        <v>1.050198037206385</v>
       </c>
       <c r="K16">
-        <v>1.044576520329802</v>
+        <v>1.056325166163701</v>
       </c>
       <c r="L16">
-        <v>1.042472621674476</v>
+        <v>1.061064518797918</v>
       </c>
       <c r="M16">
-        <v>1.050445268457714</v>
+        <v>1.068382933672392</v>
       </c>
       <c r="N16">
-        <v>1.015734160109354</v>
+        <v>1.020577005270638</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.01011589657887</v>
+        <v>1.044259223372123</v>
       </c>
       <c r="D17">
-        <v>1.032019427534604</v>
+        <v>1.053204512323495</v>
       </c>
       <c r="E17">
-        <v>1.030065109893809</v>
+        <v>1.058007229464485</v>
       </c>
       <c r="F17">
-        <v>1.038186679048783</v>
+        <v>1.06535289178337</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050652026028529</v>
+        <v>1.04559139866128</v>
       </c>
       <c r="J17">
-        <v>1.037190810393052</v>
+        <v>1.050385868259798</v>
       </c>
       <c r="K17">
-        <v>1.045488403384191</v>
+        <v>1.056511470996308</v>
       </c>
       <c r="L17">
-        <v>1.043565753561955</v>
+        <v>1.061298126485084</v>
       </c>
       <c r="M17">
-        <v>1.05155672240548</v>
+        <v>1.068619530034187</v>
       </c>
       <c r="N17">
-        <v>1.016041641583711</v>
+        <v>1.020640221310969</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.011065060984267</v>
+        <v>1.044448160181554</v>
       </c>
       <c r="D18">
-        <v>1.032740015624614</v>
+        <v>1.053354812030603</v>
       </c>
       <c r="E18">
-        <v>1.030893295840758</v>
+        <v>1.058185045068221</v>
       </c>
       <c r="F18">
-        <v>1.039023326517406</v>
+        <v>1.065532123344086</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050939482787037</v>
+        <v>1.045638309455895</v>
       </c>
       <c r="J18">
-        <v>1.037716463995151</v>
+        <v>1.050495442134168</v>
       </c>
       <c r="K18">
-        <v>1.046016570964544</v>
+        <v>1.056620143743823</v>
       </c>
       <c r="L18">
-        <v>1.04419925822312</v>
+        <v>1.061434441462995</v>
       </c>
       <c r="M18">
-        <v>1.052200828096</v>
+        <v>1.068757584645923</v>
       </c>
       <c r="N18">
-        <v>1.016219742182228</v>
+        <v>1.020677094251003</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.011387647302388</v>
+        <v>1.044512599236099</v>
       </c>
       <c r="D19">
-        <v>1.03298499925247</v>
+        <v>1.053406074970582</v>
       </c>
       <c r="E19">
-        <v>1.031174888106869</v>
+        <v>1.058245698378294</v>
       </c>
       <c r="F19">
-        <v>1.039307791881338</v>
+        <v>1.065593258835023</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0510370406131</v>
+        <v>1.045654289994079</v>
       </c>
       <c r="J19">
-        <v>1.037895085317512</v>
+        <v>1.050532806530033</v>
       </c>
       <c r="K19">
-        <v>1.046196038351214</v>
+        <v>1.056657199026459</v>
       </c>
       <c r="L19">
-        <v>1.044414579219197</v>
+        <v>1.06148093072216</v>
       </c>
       <c r="M19">
-        <v>1.052419749247003</v>
+        <v>1.06880466646143</v>
       </c>
       <c r="N19">
-        <v>1.016280260378538</v>
+        <v>1.020689666970956</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.009940801338382</v>
+        <v>1.04422447770461</v>
       </c>
       <c r="D20">
-        <v>1.031886537901096</v>
+        <v>1.053176872777921</v>
       </c>
       <c r="E20">
-        <v>1.029912390361185</v>
+        <v>1.057974532450894</v>
       </c>
       <c r="F20">
-        <v>1.038032397351339</v>
+        <v>1.06531993401936</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05059893244486</v>
+        <v>1.045582762739804</v>
       </c>
       <c r="J20">
-        <v>1.037093827839448</v>
+        <v>1.050365714183435</v>
       </c>
       <c r="K20">
-        <v>1.04539095314959</v>
+        <v>1.056491481796781</v>
       </c>
       <c r="L20">
-        <v>1.043448896880254</v>
+        <v>1.061273056831611</v>
       </c>
       <c r="M20">
-        <v>1.051437908839276</v>
+        <v>1.068594140097183</v>
       </c>
       <c r="N20">
-        <v>1.01600878135982</v>
+        <v>1.020633438814787</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.005161932561524</v>
+        <v>1.043288916953923</v>
       </c>
       <c r="D21">
-        <v>1.028264362602034</v>
+        <v>1.052432736075257</v>
       </c>
       <c r="E21">
-        <v>1.025751181923858</v>
+        <v>1.057094533614456</v>
       </c>
       <c r="F21">
-        <v>1.033828420634976</v>
+        <v>1.064432873400733</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049142327295531</v>
+        <v>1.045349196449759</v>
       </c>
       <c r="J21">
-        <v>1.034445409701076</v>
+        <v>1.049822662527266</v>
       </c>
       <c r="K21">
-        <v>1.04272933924554</v>
+        <v>1.055952772725627</v>
       </c>
       <c r="L21">
-        <v>1.04026057940893</v>
+        <v>1.060597895548495</v>
       </c>
       <c r="M21">
-        <v>1.048196046275746</v>
+        <v>1.067910313060366</v>
       </c>
       <c r="N21">
-        <v>1.015111339686585</v>
+        <v>1.020450637888433</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.002097326276153</v>
+        <v>1.042701583783334</v>
       </c>
       <c r="D22">
-        <v>1.025946421991685</v>
+        <v>1.051965660995579</v>
       </c>
       <c r="E22">
-        <v>1.023089652935509</v>
+        <v>1.056542471155918</v>
       </c>
       <c r="F22">
-        <v>1.031139353628437</v>
+        <v>1.063876338177391</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048201064602658</v>
+        <v>1.045201562938183</v>
       </c>
       <c r="J22">
-        <v>1.032745740654375</v>
+        <v>1.049481370745088</v>
       </c>
       <c r="K22">
-        <v>1.041020822629616</v>
+        <v>1.055614113493579</v>
       </c>
       <c r="L22">
-        <v>1.038217169038353</v>
+        <v>1.060173906903089</v>
       </c>
       <c r="M22">
-        <v>1.04611818420122</v>
+        <v>1.067480843755208</v>
       </c>
       <c r="N22">
-        <v>1.014535318172302</v>
+        <v>1.020335708043978</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.003727775563633</v>
+        <v>1.04301285514595</v>
       </c>
       <c r="D23">
-        <v>1.027179145843045</v>
+        <v>1.052213190499928</v>
       </c>
       <c r="E23">
-        <v>1.024504981494168</v>
+        <v>1.056835012844947</v>
       </c>
       <c r="F23">
-        <v>1.032569342301628</v>
+        <v>1.064171254051772</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048702503470369</v>
+        <v>1.045279900037484</v>
       </c>
       <c r="J23">
-        <v>1.033650117518408</v>
+        <v>1.049662281647112</v>
       </c>
       <c r="K23">
-        <v>1.041929940281134</v>
+        <v>1.055793638079282</v>
       </c>
       <c r="L23">
-        <v>1.039304188703095</v>
+        <v>1.060398622214125</v>
       </c>
       <c r="M23">
-        <v>1.047223542423038</v>
+        <v>1.067708467498209</v>
       </c>
       <c r="N23">
-        <v>1.014841819250411</v>
+        <v>1.020396633946099</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.010019938763024</v>
+        <v>1.044240177475076</v>
       </c>
       <c r="D24">
-        <v>1.031946598223666</v>
+        <v>1.053189361631624</v>
       </c>
       <c r="E24">
-        <v>1.029981412434068</v>
+        <v>1.057989306407988</v>
       </c>
       <c r="F24">
-        <v>1.038102125519462</v>
+        <v>1.06533482580969</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050622931547349</v>
+        <v>1.045586665210822</v>
       </c>
       <c r="J24">
-        <v>1.037137661355124</v>
+        <v>1.050374820896239</v>
       </c>
       <c r="K24">
-        <v>1.04543499819093</v>
+        <v>1.056500514042554</v>
       </c>
       <c r="L24">
-        <v>1.043501712038169</v>
+        <v>1.061284384557434</v>
       </c>
       <c r="M24">
-        <v>1.051491608494472</v>
+        <v>1.068605612556507</v>
       </c>
       <c r="N24">
-        <v>1.01602363333238</v>
+        <v>1.020636503532641</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.01707610888702</v>
+        <v>1.045668235501829</v>
       </c>
       <c r="D25">
-        <v>1.037311803634202</v>
+        <v>1.054325542654441</v>
       </c>
       <c r="E25">
-        <v>1.036150774272983</v>
+        <v>1.059334076336821</v>
       </c>
       <c r="F25">
-        <v>1.044334088476261</v>
+        <v>1.066690218440396</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052745177797734</v>
+        <v>1.045939221867989</v>
       </c>
       <c r="J25">
-        <v>1.041042149843608</v>
+        <v>1.051202274304454</v>
       </c>
       <c r="K25">
-        <v>1.049357253163427</v>
+        <v>1.057320967375311</v>
       </c>
       <c r="L25">
-        <v>1.048212668112053</v>
+        <v>1.062314436194957</v>
       </c>
       <c r="M25">
-        <v>1.056281060872235</v>
+        <v>1.069648731416974</v>
       </c>
       <c r="N25">
-        <v>1.017346332242959</v>
+        <v>1.020914860645799</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_192/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_192/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.046810264341325</v>
+        <v>1.022521746030864</v>
       </c>
       <c r="D2">
-        <v>1.055234419612457</v>
+        <v>1.041465775333374</v>
       </c>
       <c r="E2">
-        <v>1.060410840985502</v>
+        <v>1.040932978017918</v>
       </c>
       <c r="F2">
-        <v>1.067775337790392</v>
+        <v>1.049164002604053</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046217627763845</v>
+        <v>1.054356665478928</v>
       </c>
       <c r="J2">
-        <v>1.051862675701507</v>
+        <v>1.044049086869764</v>
       </c>
       <c r="K2">
-        <v>1.057975437745309</v>
+        <v>1.052376140963376</v>
       </c>
       <c r="L2">
-        <v>1.063137694830238</v>
+        <v>1.051850051206083</v>
       </c>
       <c r="M2">
-        <v>1.070482296160417</v>
+        <v>1.05997839936894</v>
       </c>
       <c r="N2">
-        <v>1.021136860290057</v>
+        <v>1.018364544024934</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.047641194868147</v>
+        <v>1.026377183449964</v>
       </c>
       <c r="D3">
-        <v>1.055895854492617</v>
+        <v>1.044413629622933</v>
       </c>
       <c r="E3">
-        <v>1.061195055456298</v>
+        <v>1.044330187417549</v>
       </c>
       <c r="F3">
-        <v>1.068565549263242</v>
+        <v>1.05259458251977</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04641814162123</v>
+        <v>1.055481718289512</v>
       </c>
       <c r="J3">
-        <v>1.052342408947657</v>
+        <v>1.046173725136217</v>
       </c>
       <c r="K3">
-        <v>1.058450661547886</v>
+        <v>1.054508099048493</v>
       </c>
       <c r="L3">
-        <v>1.063736405663498</v>
+        <v>1.054425615340949</v>
       </c>
       <c r="M3">
-        <v>1.071088421744308</v>
+        <v>1.062595986776157</v>
       </c>
       <c r="N3">
-        <v>1.021298032604335</v>
+        <v>1.019083690590773</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.048179646282333</v>
+        <v>1.028828506011096</v>
       </c>
       <c r="D4">
-        <v>1.056324534269558</v>
+        <v>1.046290838007914</v>
       </c>
       <c r="E4">
-        <v>1.06170358757896</v>
+        <v>1.046495271937136</v>
       </c>
       <c r="F4">
-        <v>1.069077929518894</v>
+        <v>1.054780676985729</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046547126965222</v>
+        <v>1.05618950322242</v>
       </c>
       <c r="J4">
-        <v>1.052652923715695</v>
+        <v>1.047522457607917</v>
       </c>
       <c r="K4">
-        <v>1.058758164043797</v>
+        <v>1.055860918595256</v>
       </c>
       <c r="L4">
-        <v>1.064124242425581</v>
+        <v>1.056063146382727</v>
       </c>
       <c r="M4">
-        <v>1.071481024376149</v>
+        <v>1.064260020388339</v>
       </c>
       <c r="N4">
-        <v>1.021402309999712</v>
+        <v>1.019540052799584</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.048406197120103</v>
+        <v>1.029848962691114</v>
       </c>
       <c r="D5">
-        <v>1.056504913880519</v>
+        <v>1.047072965133975</v>
       </c>
       <c r="E5">
-        <v>1.06191763412661</v>
+        <v>1.047397767672592</v>
       </c>
       <c r="F5">
-        <v>1.069293586037498</v>
+        <v>1.055691866495401</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046601169564096</v>
+        <v>1.056482309747783</v>
       </c>
       <c r="J5">
-        <v>1.052783485594828</v>
+        <v>1.048083382387811</v>
       </c>
       <c r="K5">
-        <v>1.05888743690889</v>
+        <v>1.056423403149981</v>
       </c>
       <c r="L5">
-        <v>1.064287390517971</v>
+        <v>1.056744794224844</v>
       </c>
       <c r="M5">
-        <v>1.07164616833602</v>
+        <v>1.06495264621004</v>
       </c>
       <c r="N5">
-        <v>1.021446144875482</v>
+        <v>1.019729809421988</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048444246850061</v>
+        <v>1.030019719623732</v>
       </c>
       <c r="D6">
-        <v>1.056535209893092</v>
+        <v>1.04720387963926</v>
       </c>
       <c r="E6">
-        <v>1.061953588651137</v>
+        <v>1.047548855252975</v>
       </c>
       <c r="F6">
-        <v>1.069329810425466</v>
+        <v>1.055844405681233</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046610232810166</v>
+        <v>1.056531197463003</v>
       </c>
       <c r="J6">
-        <v>1.052805408728957</v>
+        <v>1.048177211823229</v>
       </c>
       <c r="K6">
-        <v>1.058909142281513</v>
+        <v>1.056517485104206</v>
       </c>
       <c r="L6">
-        <v>1.064314789706481</v>
+        <v>1.056858853988226</v>
       </c>
       <c r="M6">
-        <v>1.071673902186216</v>
+        <v>1.065068539662816</v>
       </c>
       <c r="N6">
-        <v>1.021453504733541</v>
+        <v>1.019761548786848</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.048182672737623</v>
+        <v>1.028842180603871</v>
       </c>
       <c r="D7">
-        <v>1.056326943874074</v>
+        <v>1.046301316287359</v>
       </c>
       <c r="E7">
-        <v>1.061706446661701</v>
+        <v>1.046507361112241</v>
       </c>
       <c r="F7">
-        <v>1.069080810144788</v>
+        <v>1.054792882871841</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046547849804463</v>
+        <v>1.056193434250613</v>
       </c>
       <c r="J7">
-        <v>1.052654668207226</v>
+        <v>1.047529976411317</v>
       </c>
       <c r="K7">
-        <v>1.058759891400559</v>
+        <v>1.055868458866744</v>
       </c>
       <c r="L7">
-        <v>1.064126422021514</v>
+        <v>1.056072280962912</v>
       </c>
       <c r="M7">
-        <v>1.071483230671296</v>
+        <v>1.064269302298293</v>
       </c>
       <c r="N7">
-        <v>1.021402895737223</v>
+        <v>1.019542596515404</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.047090917840839</v>
+        <v>1.02383388774047</v>
       </c>
       <c r="D8">
-        <v>1.055457811211971</v>
+        <v>1.042468397276213</v>
       </c>
       <c r="E8">
-        <v>1.060675642436109</v>
+        <v>1.042088081788415</v>
       </c>
       <c r="F8">
-        <v>1.068042172622862</v>
+        <v>1.050330505275147</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046285549371484</v>
+        <v>1.054741119888354</v>
       </c>
       <c r="J8">
-        <v>1.052024783264579</v>
+        <v>1.04477260711185</v>
       </c>
       <c r="K8">
-        <v>1.058136040819933</v>
+        <v>1.053102267578945</v>
       </c>
       <c r="L8">
-        <v>1.063339941780928</v>
+        <v>1.052726596885369</v>
       </c>
       <c r="M8">
-        <v>1.070687055549951</v>
+        <v>1.060869290535975</v>
       </c>
       <c r="N8">
-        <v>1.021191331385491</v>
+        <v>1.018609471973343</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.04517318807228</v>
+        <v>1.01466157272492</v>
       </c>
       <c r="D9">
-        <v>1.053931634529235</v>
+        <v>1.035473677975166</v>
       </c>
       <c r="E9">
-        <v>1.058867692835685</v>
+        <v>1.0340362990983</v>
       </c>
       <c r="F9">
-        <v>1.066220174134707</v>
+        <v>1.042198278458007</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045817551770982</v>
+        <v>1.05202303867591</v>
       </c>
       <c r="J9">
-        <v>1.050915634516733</v>
+        <v>1.039707008324542</v>
       </c>
       <c r="K9">
-        <v>1.057036805560792</v>
+        <v>1.048016292226923</v>
       </c>
       <c r="L9">
-        <v>1.061957434404395</v>
+        <v>1.04660028408986</v>
       </c>
       <c r="M9">
-        <v>1.069287221942961</v>
+        <v>1.054641905848661</v>
       </c>
       <c r="N9">
-        <v>1.020818459161775</v>
+        <v>1.016894095311036</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.043898897077914</v>
+        <v>1.008291843485702</v>
       </c>
       <c r="D10">
-        <v>1.052917890235788</v>
+        <v>1.030635655606931</v>
       </c>
       <c r="E10">
-        <v>1.057668200433336</v>
+        <v>1.028475044342924</v>
       </c>
       <c r="F10">
-        <v>1.065011153352059</v>
+        <v>1.036580321724255</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045501706009109</v>
+        <v>1.050097944309906</v>
       </c>
       <c r="J10">
-        <v>1.050176812578178</v>
+        <v>1.036180297082358</v>
       </c>
       <c r="K10">
-        <v>1.056304112538769</v>
+        <v>1.044472960550413</v>
       </c>
       <c r="L10">
-        <v>1.061038126438448</v>
+        <v>1.042348526353611</v>
       </c>
       <c r="M10">
-        <v>1.068356203076759</v>
+        <v>1.050319090903136</v>
       </c>
       <c r="N10">
-        <v>1.020569861274243</v>
+        <v>1.015699241158937</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.04334813260165</v>
+        <v>1.005468120187519</v>
       </c>
       <c r="D11">
-        <v>1.052479830794264</v>
+        <v>1.02849616163613</v>
       </c>
       <c r="E11">
-        <v>1.057150209799574</v>
+        <v>1.026017395592707</v>
       </c>
       <c r="F11">
-        <v>1.064488998864144</v>
+        <v>1.034097381399016</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045364038488716</v>
+        <v>1.049236072983766</v>
       </c>
       <c r="J11">
-        <v>1.049857056278582</v>
+        <v>1.034615175080139</v>
       </c>
       <c r="K11">
-        <v>1.055986897093258</v>
+        <v>1.042899973276518</v>
       </c>
       <c r="L11">
-        <v>1.060640637082423</v>
+        <v>1.04046479330713</v>
       </c>
       <c r="M11">
-        <v>1.067953605450142</v>
+        <v>1.048403697931196</v>
       </c>
       <c r="N11">
-        <v>1.020462218069341</v>
+        <v>1.015168870829586</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.043143707998282</v>
+        <v>1.004408946313302</v>
       </c>
       <c r="D12">
-        <v>1.052317252944367</v>
+        <v>1.027694478061415</v>
       </c>
       <c r="E12">
-        <v>1.056958017040127</v>
+        <v>1.025096731790773</v>
       </c>
       <c r="F12">
-        <v>1.064295253800764</v>
+        <v>1.033167211265109</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045312767567444</v>
+        <v>1.048911551400945</v>
       </c>
       <c r="J12">
-        <v>1.049738309729385</v>
+        <v>1.034027876664301</v>
       </c>
       <c r="K12">
-        <v>1.055869077419937</v>
+        <v>1.042309657679944</v>
       </c>
       <c r="L12">
-        <v>1.060493080197917</v>
+        <v>1.03975841131237</v>
       </c>
       <c r="M12">
-        <v>1.067804145564075</v>
+        <v>1.047685420364816</v>
       </c>
       <c r="N12">
-        <v>1.020422235299028</v>
+        <v>1.01496984125594</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.043187550778623</v>
+        <v>1.004636617317532</v>
       </c>
       <c r="D13">
-        <v>1.052352120217533</v>
+        <v>1.027866762440269</v>
       </c>
       <c r="E13">
-        <v>1.05699923341165</v>
+        <v>1.025294575080758</v>
       </c>
       <c r="F13">
-        <v>1.064336803402273</v>
+        <v>1.033367098773344</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045323771454053</v>
+        <v>1.048981363002578</v>
       </c>
       <c r="J13">
-        <v>1.049763780105966</v>
+        <v>1.034154126882721</v>
       </c>
       <c r="K13">
-        <v>1.055894349742648</v>
+        <v>1.042436559342413</v>
       </c>
       <c r="L13">
-        <v>1.060524727625325</v>
+        <v>1.039910239339089</v>
       </c>
       <c r="M13">
-        <v>1.067836201442646</v>
+        <v>1.0478398061988</v>
       </c>
       <c r="N13">
-        <v>1.02043081169872</v>
+        <v>1.015012626720817</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.043331231651249</v>
+        <v>1.005380781787103</v>
       </c>
       <c r="D14">
-        <v>1.052466389253919</v>
+        <v>1.028430038287603</v>
       </c>
       <c r="E14">
-        <v>1.057134318748912</v>
+        <v>1.025941454010689</v>
       </c>
       <c r="F14">
-        <v>1.064472979614811</v>
+        <v>1.034020656308478</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045359803169362</v>
+        <v>1.049209338163002</v>
       </c>
       <c r="J14">
-        <v>1.04984724013025</v>
+        <v>1.034566751398624</v>
       </c>
       <c r="K14">
-        <v>1.055977157905354</v>
+        <v>1.042851302116611</v>
       </c>
       <c r="L14">
-        <v>1.060628438172169</v>
+        <v>1.040406541399812</v>
       </c>
       <c r="M14">
-        <v>1.067941249350353</v>
+        <v>1.048344465509671</v>
       </c>
       <c r="N14">
-        <v>1.020458913063664</v>
+        <v>1.015152460768002</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.04341977861935</v>
+        <v>1.005837904628435</v>
       </c>
       <c r="D15">
-        <v>1.052536812381241</v>
+        <v>1.028776157553939</v>
       </c>
       <c r="E15">
-        <v>1.057217577440853</v>
+        <v>1.026338975786143</v>
       </c>
       <c r="F15">
-        <v>1.064556909681983</v>
+        <v>1.034422278138236</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045381985622875</v>
+        <v>1.049349216115871</v>
       </c>
       <c r="J15">
-        <v>1.049898665982962</v>
+        <v>1.034820188508371</v>
       </c>
       <c r="K15">
-        <v>1.05602817988585</v>
+        <v>1.043106031827143</v>
       </c>
       <c r="L15">
-        <v>1.060692349421355</v>
+        <v>1.040711436176755</v>
       </c>
       <c r="M15">
-        <v>1.068005983856201</v>
+        <v>1.048654491435965</v>
       </c>
       <c r="N15">
-        <v>1.020476227351251</v>
+        <v>1.015238346314241</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.043935470977368</v>
+        <v>1.008477823869017</v>
       </c>
       <c r="D16">
-        <v>1.052946981894589</v>
+        <v>1.0307766835897</v>
       </c>
       <c r="E16">
-        <v>1.057702607385839</v>
+        <v>1.028637077558553</v>
       </c>
       <c r="F16">
-        <v>1.065045835849136</v>
+        <v>1.036744017810066</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045510823564197</v>
+        <v>1.05015453654524</v>
       </c>
       <c r="J16">
-        <v>1.050198037206385</v>
+        <v>1.036283348555823</v>
       </c>
       <c r="K16">
-        <v>1.056325166163701</v>
+        <v>1.044576520329802</v>
       </c>
       <c r="L16">
-        <v>1.061064518797918</v>
+        <v>1.042472621674477</v>
       </c>
       <c r="M16">
-        <v>1.068382933672392</v>
+        <v>1.050445268457714</v>
       </c>
       <c r="N16">
-        <v>1.020577005270638</v>
+        <v>1.015734160109354</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.044259223372123</v>
+        <v>1.010115896578869</v>
       </c>
       <c r="D17">
-        <v>1.053204512323495</v>
+        <v>1.032019427534603</v>
       </c>
       <c r="E17">
-        <v>1.058007229464485</v>
+        <v>1.030065109893808</v>
       </c>
       <c r="F17">
-        <v>1.06535289178337</v>
+        <v>1.038186679048782</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04559139866128</v>
+        <v>1.050652026028529</v>
       </c>
       <c r="J17">
-        <v>1.050385868259798</v>
+        <v>1.037190810393052</v>
       </c>
       <c r="K17">
-        <v>1.056511470996308</v>
+        <v>1.04548840338419</v>
       </c>
       <c r="L17">
-        <v>1.061298126485084</v>
+        <v>1.043565753561954</v>
       </c>
       <c r="M17">
-        <v>1.068619530034187</v>
+        <v>1.051556722405479</v>
       </c>
       <c r="N17">
-        <v>1.020640221310969</v>
+        <v>1.016041641583711</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.044448160181554</v>
+        <v>1.011065060984268</v>
       </c>
       <c r="D18">
-        <v>1.053354812030603</v>
+        <v>1.032740015624614</v>
       </c>
       <c r="E18">
-        <v>1.058185045068221</v>
+        <v>1.030893295840758</v>
       </c>
       <c r="F18">
-        <v>1.065532123344086</v>
+        <v>1.039023326517406</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045638309455895</v>
+        <v>1.050939482787037</v>
       </c>
       <c r="J18">
-        <v>1.050495442134168</v>
+        <v>1.037716463995151</v>
       </c>
       <c r="K18">
-        <v>1.056620143743823</v>
+        <v>1.046016570964545</v>
       </c>
       <c r="L18">
-        <v>1.061434441462995</v>
+        <v>1.04419925822312</v>
       </c>
       <c r="M18">
-        <v>1.068757584645923</v>
+        <v>1.052200828096</v>
       </c>
       <c r="N18">
-        <v>1.020677094251003</v>
+        <v>1.016219742182228</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.044512599236099</v>
+        <v>1.011387647302388</v>
       </c>
       <c r="D19">
-        <v>1.053406074970582</v>
+        <v>1.03298499925247</v>
       </c>
       <c r="E19">
-        <v>1.058245698378294</v>
+        <v>1.031174888106869</v>
       </c>
       <c r="F19">
-        <v>1.065593258835023</v>
+        <v>1.039307791881337</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045654289994079</v>
+        <v>1.051037040613101</v>
       </c>
       <c r="J19">
-        <v>1.050532806530033</v>
+        <v>1.037895085317512</v>
       </c>
       <c r="K19">
-        <v>1.056657199026459</v>
+        <v>1.046196038351214</v>
       </c>
       <c r="L19">
-        <v>1.06148093072216</v>
+        <v>1.044414579219197</v>
       </c>
       <c r="M19">
-        <v>1.06880466646143</v>
+        <v>1.052419749247003</v>
       </c>
       <c r="N19">
-        <v>1.020689666970956</v>
+        <v>1.016280260378538</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.04422447770461</v>
+        <v>1.009940801338382</v>
       </c>
       <c r="D20">
-        <v>1.053176872777921</v>
+        <v>1.031886537901097</v>
       </c>
       <c r="E20">
-        <v>1.057974532450894</v>
+        <v>1.029912390361186</v>
       </c>
       <c r="F20">
-        <v>1.06531993401936</v>
+        <v>1.03803239735134</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045582762739804</v>
+        <v>1.05059893244486</v>
       </c>
       <c r="J20">
-        <v>1.050365714183435</v>
+        <v>1.037093827839449</v>
       </c>
       <c r="K20">
-        <v>1.056491481796781</v>
+        <v>1.045390953149591</v>
       </c>
       <c r="L20">
-        <v>1.061273056831611</v>
+        <v>1.043448896880255</v>
       </c>
       <c r="M20">
-        <v>1.068594140097183</v>
+        <v>1.051437908839277</v>
       </c>
       <c r="N20">
-        <v>1.020633438814787</v>
+        <v>1.01600878135982</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.043288916953923</v>
+        <v>1.005161932561523</v>
       </c>
       <c r="D21">
-        <v>1.052432736075257</v>
+        <v>1.028264362602033</v>
       </c>
       <c r="E21">
-        <v>1.057094533614456</v>
+        <v>1.025751181923858</v>
       </c>
       <c r="F21">
-        <v>1.064432873400733</v>
+        <v>1.033828420634975</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045349196449759</v>
+        <v>1.049142327295531</v>
       </c>
       <c r="J21">
-        <v>1.049822662527266</v>
+        <v>1.034445409701076</v>
       </c>
       <c r="K21">
-        <v>1.055952772725627</v>
+        <v>1.04272933924554</v>
       </c>
       <c r="L21">
-        <v>1.060597895548495</v>
+        <v>1.040260579408929</v>
       </c>
       <c r="M21">
-        <v>1.067910313060366</v>
+        <v>1.048196046275746</v>
       </c>
       <c r="N21">
-        <v>1.020450637888433</v>
+        <v>1.015111339686585</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.042701583783334</v>
+        <v>1.002097326276154</v>
       </c>
       <c r="D22">
-        <v>1.051965660995579</v>
+        <v>1.025946421991685</v>
       </c>
       <c r="E22">
-        <v>1.056542471155918</v>
+        <v>1.02308965293551</v>
       </c>
       <c r="F22">
-        <v>1.063876338177391</v>
+        <v>1.031139353628437</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045201562938183</v>
+        <v>1.048201064602658</v>
       </c>
       <c r="J22">
-        <v>1.049481370745088</v>
+        <v>1.032745740654375</v>
       </c>
       <c r="K22">
-        <v>1.055614113493579</v>
+        <v>1.041020822629617</v>
       </c>
       <c r="L22">
-        <v>1.060173906903089</v>
+        <v>1.038217169038354</v>
       </c>
       <c r="M22">
-        <v>1.067480843755208</v>
+        <v>1.046118184201221</v>
       </c>
       <c r="N22">
-        <v>1.020335708043978</v>
+        <v>1.014535318172302</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.04301285514595</v>
+        <v>1.003727775563633</v>
       </c>
       <c r="D23">
-        <v>1.052213190499928</v>
+        <v>1.027179145843045</v>
       </c>
       <c r="E23">
-        <v>1.056835012844947</v>
+        <v>1.024504981494169</v>
       </c>
       <c r="F23">
-        <v>1.064171254051772</v>
+        <v>1.032569342301629</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045279900037484</v>
+        <v>1.048702503470369</v>
       </c>
       <c r="J23">
-        <v>1.049662281647112</v>
+        <v>1.033650117518409</v>
       </c>
       <c r="K23">
-        <v>1.055793638079282</v>
+        <v>1.041929940281134</v>
       </c>
       <c r="L23">
-        <v>1.060398622214125</v>
+        <v>1.039304188703095</v>
       </c>
       <c r="M23">
-        <v>1.067708467498209</v>
+        <v>1.047223542423038</v>
       </c>
       <c r="N23">
-        <v>1.020396633946099</v>
+        <v>1.014841819250411</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.044240177475076</v>
+        <v>1.010019938763024</v>
       </c>
       <c r="D24">
-        <v>1.053189361631624</v>
+        <v>1.031946598223666</v>
       </c>
       <c r="E24">
-        <v>1.057989306407988</v>
+        <v>1.029981412434068</v>
       </c>
       <c r="F24">
-        <v>1.06533482580969</v>
+        <v>1.038102125519462</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045586665210822</v>
+        <v>1.050622931547349</v>
       </c>
       <c r="J24">
-        <v>1.050374820896239</v>
+        <v>1.037137661355124</v>
       </c>
       <c r="K24">
-        <v>1.056500514042554</v>
+        <v>1.04543499819093</v>
       </c>
       <c r="L24">
-        <v>1.061284384557434</v>
+        <v>1.043501712038169</v>
       </c>
       <c r="M24">
-        <v>1.068605612556507</v>
+        <v>1.051491608494472</v>
       </c>
       <c r="N24">
-        <v>1.020636503532641</v>
+        <v>1.01602363333238</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.045668235501829</v>
+        <v>1.017076108887021</v>
       </c>
       <c r="D25">
-        <v>1.054325542654441</v>
+        <v>1.037311803634203</v>
       </c>
       <c r="E25">
-        <v>1.059334076336821</v>
+        <v>1.036150774272984</v>
       </c>
       <c r="F25">
-        <v>1.066690218440396</v>
+        <v>1.044334088476262</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045939221867989</v>
+        <v>1.052745177797735</v>
       </c>
       <c r="J25">
-        <v>1.051202274304454</v>
+        <v>1.041042149843609</v>
       </c>
       <c r="K25">
-        <v>1.057320967375311</v>
+        <v>1.049357253163427</v>
       </c>
       <c r="L25">
-        <v>1.062314436194957</v>
+        <v>1.048212668112054</v>
       </c>
       <c r="M25">
-        <v>1.069648731416974</v>
+        <v>1.056281060872236</v>
       </c>
       <c r="N25">
-        <v>1.020914860645799</v>
+        <v>1.01734633224296</v>
       </c>
     </row>
   </sheetData>
